--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_precision.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_precision.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9555555555555556</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
@@ -1259,17 +1259,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1544,17 +1544,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1620,17 +1620,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -1639,17 +1639,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="66">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -1753,17 +1753,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_precision.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_precision.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>which studies examined the abstract in metadata?</t>
+          <t>How is RAG used to improve question answering or information retrieval systems?</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>which studies examined citations?</t>
+          <t>Tell me about Crossref.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tell me about OpenAlex.</t>
+          <t>tell me about how RAG works.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tell me about Crossref.</t>
+          <t>Tell me about OpenAlex.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="31">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="34">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="35">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="36">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="42">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.25</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="44">
@@ -1259,17 +1259,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="45">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="46">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.4</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="48">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.75</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="49">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.75</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="50">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.75</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="51">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+          <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.75</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="53">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="54">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="55">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="56">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>How is RAG used to improve question answering or information retrieval systems?</t>
+          <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="58">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="59">
@@ -1544,17 +1544,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="60">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+          <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="62">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="63">
@@ -1620,17 +1620,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="64">
@@ -1639,17 +1639,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="65">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+          <t>which studies examined citations?</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="67">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="68">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
     </row>
     <row r="69">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="70">
@@ -1753,17 +1753,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tell me about how RAG works.</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>
